--- a/07.05.19_Project_Exam_1_Ole_Alexander_Moa_Pettersen_Gantt_Chart_FP.xlsx
+++ b/07.05.19_Project_Exam_1_Ole_Alexander_Moa_Pettersen_Gantt_Chart_FP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olea.m.pettersen/Desktop/Project_Exam_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98232191-7EA5-F649-B4EC-4A393A6DF0BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDFEE6A-2909-744B-8008-3EA677438073}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{8AD84856-A94F-9B46-85B4-CEC26629C393}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Write Functional Spec</t>
   </si>
@@ -136,13 +136,16 @@
   </si>
   <si>
     <t>Week 23</t>
+  </si>
+  <si>
+    <t>Deadlines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,8 +192,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +238,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -389,42 +406,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -438,12 +422,6 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,10 +475,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,22 +515,43 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -842,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B6CB8D-28B4-3C49-BFBA-7202EF18DA44}">
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,1043 +883,1055 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="8" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="11" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="12"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="49"/>
     </row>
     <row r="2" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="12"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="49"/>
     </row>
     <row r="3" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="12"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="49"/>
     </row>
     <row r="4" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="48" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="48" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="48" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="48" t="s">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="49" t="s">
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="50"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="36"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="23">
-        <v>43652</v>
-      </c>
-      <c r="D5" s="24">
-        <v>43653</v>
-      </c>
-      <c r="E5" s="25">
-        <v>43654</v>
-      </c>
-      <c r="F5" s="23">
-        <v>43655</v>
-      </c>
-      <c r="G5" s="23">
-        <v>43656</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="12">
+        <v>43591</v>
+      </c>
+      <c r="D5" s="12">
+        <v>43592</v>
+      </c>
+      <c r="E5" s="12">
+        <v>43593</v>
+      </c>
+      <c r="F5" s="12">
+        <v>43594</v>
+      </c>
+      <c r="G5" s="12">
+        <v>43595</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="52">
         <v>43598</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="12">
         <v>43599</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="12">
         <v>43600</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="12">
         <v>43601</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="14">
         <v>43602</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="23">
+      <c r="N5" s="13"/>
+      <c r="O5" s="53">
         <v>43605</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="12">
         <v>43606</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="12">
         <v>43607</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="12">
         <v>43608</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="12">
         <v>43609</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="12">
         <v>43612</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="12">
         <v>43613</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="12">
         <v>43614</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="12">
         <v>43615</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="12">
         <v>43616</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5" s="12">
         <v>43617</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="12">
         <v>43618</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AA5" s="12">
         <v>43619</v>
       </c>
-      <c r="AB5" s="23">
+      <c r="AB5" s="12">
         <v>43620</v>
       </c>
-      <c r="AC5" s="27">
+      <c r="AC5" s="54">
         <v>43621</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="30"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="17"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="30"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="17"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="28" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="30"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="17"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="28" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="30"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="17"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="30"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="17"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="39" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="30"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="17"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="40" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="35"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="22"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="41" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="36"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="23"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="42" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="30"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="17"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="42" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="30"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="17"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="43" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="35"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="22"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="51" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="P19" s="51" t="s">
+      <c r="P19" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="36"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="23"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="52" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R20" s="52" t="s">
+      <c r="R20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="30"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="17"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="52" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="52" t="s">
+      <c r="T21" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="30"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="17"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="52" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="V22" s="52" t="s">
+      <c r="V22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="30"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="17"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="52" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X23" s="52" t="s">
+      <c r="X23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="30"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="17"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="52" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="30"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="17"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="52" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="30"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="17"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="52" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="30"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="17"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="52" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="30"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="17"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="53" t="s">
+      <c r="B28" s="51"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="AC28" s="35"/>
+      <c r="AC28" s="22"/>
+    </row>
+    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="C30" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="T4:X4"/>
     <mergeCell ref="Y4:AC4"/>
     <mergeCell ref="C1:G3"/>
@@ -1902,8 +1940,6 @@
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="O1:AC3"/>
     <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
